--- a/Data4Dipesh/Ash/Ash_Front.xlsx
+++ b/Data4Dipesh/Ash/Ash_Front.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/more/Desktop/Data4Dipesh/Ash/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/more/Jue/【Python】/thermal-treatment/Data4Dipesh/Ash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA705408-5FEA-B04F-956A-63F74CD83E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1B4A10-C792-3949-BD03-E4D110390E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21840" yWindow="-12860" windowWidth="21840" windowHeight="21140" firstSheet="13" activeTab="24" xr2:uid="{E91E4898-FD52-D146-A301-D679369FD159}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E91E4898-FD52-D146-A301-D679369FD159}"/>
   </bookViews>
   <sheets>
     <sheet name="225-10" sheetId="1" r:id="rId1"/>
@@ -12008,8 +12008,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54868,7 +54868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017BF2F5-98DB-4348-A1E8-160994FD9F80}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="86" workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
